--- a/xlsx/元维基_intext.xlsx
+++ b/xlsx/元维基_intext.xlsx
@@ -15,117 +15,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>元维基</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B6%AD%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>维基媒体</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_元维基</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>维基媒体基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>维基词典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>维基教科书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
+  </si>
+  <si>
+    <t>维基语录</t>
+  </si>
+  <si>
+    <t>https://zh.wikiquote.org/wiki/</t>
+  </si>
+  <si>
+    <t>q-</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
+  </si>
+  <si>
+    <t>维基文库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
+  </si>
+  <si>
+    <t>维基共享资源</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
+  </si>
+  <si>
+    <t>维基物种</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
+  </si>
+  <si>
+    <t>维基新闻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>维基学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%95%B0%E6%8D%AE</t>
+  </si>
+  <si>
+    <t>维基数据</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
+  </si>
+  <si>
+    <t>维基导游</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MediaWiki</t>
+  </si>
+  <si>
+    <t>MediaWiki</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>维基媒体国际会议</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%BB%B4%E5%9F%BA</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>维基媒体</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_元维基</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94</t>
-  </si>
-  <si>
-    <t>維基媒體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>維基媒體基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>维基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>維基詞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>維基教科書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
-  </si>
-  <si>
-    <t>維基語錄</t>
-  </si>
-  <si>
-    <t>https://zh.wikiquote.org/wiki/</t>
-  </si>
-  <si>
-    <t>q-</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
-  </si>
-  <si>
-    <t>維基文庫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
-  </si>
-  <si>
-    <t>維基共享資源</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
-  </si>
-  <si>
-    <t>維基物種</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
-  </si>
-  <si>
-    <t>維基新聞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>维基学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%95%B0%E6%8D%AE</t>
-  </si>
-  <si>
-    <t>维基数据</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
-  </si>
-  <si>
-    <t>維基導遊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/MediaWiki</t>
-  </si>
-  <si>
-    <t>MediaWiki</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>維基媒體國際會議</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -580,10 +586,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -609,10 +615,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>7</v>
@@ -638,10 +644,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -667,10 +673,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -696,10 +702,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -725,10 +731,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>15</v>
@@ -754,10 +760,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -783,10 +789,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -812,10 +818,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -841,10 +847,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -870,10 +876,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -899,10 +905,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -928,10 +934,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -957,10 +963,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -986,18 +992,76 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
         <v>3</v>
       </c>
     </row>
